--- a/統計管制與最佳化方法概論/homework/考古作業/HW11/HW11_1.xlsx
+++ b/統計管制與最佳化方法概論/homework/考古作業/HW11/HW11_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\NTU碩士\修課\Statistical Control and Optimization\HW\HW11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\考古作業\HW11\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AAFBD7-6C6D-4385-A191-0322380EAFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="0" windowWidth="655350" windowHeight="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="4" r:id="rId1"/>
@@ -173,7 +174,7 @@
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,13 +186,22 @@
         </x15:modelTables>
       </x15:dataModel>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="ThisWorkbookDataModel" description="資料模型" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="資料模型" type="5" refreshedVersion="5" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -200,7 +210,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" name="WorksheetConnection_1!$A$46:$C$50" type="102" refreshedVersion="5" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_1!$A$46:$C$50" type="102" refreshedVersion="5" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="範圍-84bcd8b9-4c9f-4b08-8f30-869a09f5c714" autoDelete="1" usedByAddin="1">
@@ -1457,7 +1467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
@@ -2382,19 +2392,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2409,34 +2437,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2506,7 +2516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3040,7 +3049,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4270,7 +4278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4515,7 +4522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4638,7 +4644,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15071,7 +15076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15109,7 +15120,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15126,20 +15143,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>283027</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167573</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>119744</xdr:rowOff>
+      <xdr:rowOff>50472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>166504</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>443595</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>155887</xdr:rowOff>
+      <xdr:rowOff>86615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4"/>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15152,8 +15175,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4713513" y="6858001"/>
-          <a:ext cx="6904762" cy="4771429"/>
+          <a:off x="2522846" y="6804563"/>
+          <a:ext cx="6983931" cy="4781325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15164,20 +15187,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>492166</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
+      <xdr:rowOff>86262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>413657</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>736930</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:rowOff>178791</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15212,7 +15241,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15242,7 +15277,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15272,7 +15313,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15302,7 +15349,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15332,7 +15385,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15362,7 +15421,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="圖表 8"/>
+        <xdr:cNvPr id="9" name="圖表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15392,7 +15457,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
+        <xdr:cNvPr id="10" name="圖表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15422,7 +15493,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15460,7 +15537,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="圖表 10"/>
+        <xdr:cNvPr id="11" name="圖表 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15490,7 +15573,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="文字方塊 11"/>
+        <xdr:cNvPr id="12" name="文字方塊 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15557,7 +15646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="文字方塊 12"/>
+        <xdr:cNvPr id="13" name="文字方塊 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15624,7 +15719,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="文字方塊 13"/>
+        <xdr:cNvPr id="14" name="文字方塊 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15691,7 +15792,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15721,7 +15828,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文字方塊 14"/>
+        <xdr:cNvPr id="15" name="文字方塊 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15788,7 +15901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="文字方塊 15"/>
+        <xdr:cNvPr id="16" name="文字方塊 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15855,7 +15974,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="文字方塊 16"/>
+        <xdr:cNvPr id="17" name="文字方塊 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16185,42 +16310,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="19" customWidth="1"/>
-    <col min="2" max="5" width="8.5" style="19" customWidth="1"/>
-    <col min="6" max="9" width="11.25" style="19" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="19" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="19" customWidth="1"/>
-    <col min="13" max="16" width="8.5" style="19" customWidth="1"/>
-    <col min="17" max="19" width="11.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="20.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.625" style="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="15.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.875" style="19"/>
-    <col min="30" max="30" width="20.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.875" style="19"/>
-    <col min="32" max="32" width="16.75" style="19" customWidth="1"/>
-    <col min="33" max="16384" width="8.875" style="19"/>
+    <col min="1" max="1" width="8.36328125" style="19" customWidth="1"/>
+    <col min="2" max="5" width="8.453125" style="19" customWidth="1"/>
+    <col min="6" max="9" width="11.26953125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.08984375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" style="19" customWidth="1"/>
+    <col min="13" max="16" width="8.453125" style="19" customWidth="1"/>
+    <col min="17" max="19" width="11.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="20.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="15.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.90625" style="19"/>
+    <col min="30" max="30" width="20.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.90625" style="19"/>
+    <col min="32" max="32" width="16.7265625" style="19" customWidth="1"/>
+    <col min="33" max="16384" width="8.90625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -16303,7 +16428,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -16401,7 +16526,7 @@
         <v>-0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -16521,7 +16646,7 @@
         <v>1.0205833087634244</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -16641,7 +16766,7 @@
         <v>3.7543162124276512</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -16761,7 +16886,7 @@
         <v>11.283974182970246</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -16881,7 +17006,7 @@
         <v>26.548201880084157</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -17001,7 +17126,7 @@
         <v>67.384186786151062</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -17099,7 +17224,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -17197,7 +17322,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -17295,7 +17420,7 @@
         <v>-0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -17393,7 +17518,7 @@
         <v>-0.90999999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -17491,7 +17616,7 @@
         <v>0.45499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -17589,7 +17714,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -17687,7 +17812,7 @@
         <v>0.96500000000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -17785,7 +17910,7 @@
         <v>-0.5149999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>15</v>
       </c>
@@ -17883,7 +18008,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -17981,7 +18106,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J19" s="19">
         <f>AVERAGE(J3:J18)</f>
         <v>5.9910543475853233</v>
@@ -17991,7 +18116,7 @@
         <v>5.9910543475853233</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="L20" s="24"/>
       <c r="M20" s="25" t="s">
         <v>103</v>
@@ -18043,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L21" s="27"/>
       <c r="M21" s="28">
         <f>SUMPRODUCT(M3:M18,$AB$3:$AB$18)/8</f>
@@ -18106,7 +18231,7 @@
         <v>0.12062499999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="L22" s="30" t="s">
         <v>92</v>
       </c>
@@ -18156,7 +18281,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L23" s="27">
         <f>AVERAGE(AB3:AB18)</f>
         <v>-8.7187499999999946E-2</v>
@@ -18222,8 +18347,8 @@
         <v>6.0312499999999984E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>14</v>
       </c>
@@ -18271,7 +18396,7 @@
         <v>0.12976089790456907</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -18349,7 +18474,7 @@
         <v>1.4550390624999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -18414,7 +18539,7 @@
         <v>2.570581835636315</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>6</v>
       </c>
@@ -18479,7 +18604,7 @@
         <v>0.33356100712934361</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -18537,7 +18662,7 @@
         <v>6.0748674785633527</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -18595,7 +18720,7 @@
         <v>-24.831909343586464</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>12</v>
       </c>
@@ -18653,7 +18778,7 @@
         <v>16.574595611547892</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>14</v>
       </c>
@@ -18711,7 +18836,7 @@
         <v>1.0489681524798404</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>16</v>
       </c>
@@ -18772,7 +18897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="22" t="s">
         <v>22</v>
       </c>
@@ -18820,7 +18945,7 @@
         <v>5.9910543475853251</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B36" s="19" t="s">
         <v>23</v>
       </c>
@@ -18834,7 +18959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" s="19" t="s">
         <v>14</v>
       </c>
@@ -18843,7 +18968,7 @@
         <v>8.5727609780480218</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" s="19" t="s">
         <v>15</v>
       </c>
@@ -18852,7 +18977,7 @@
         <v>3.4093477171226265</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="19" t="s">
         <v>16</v>
       </c>
@@ -18861,7 +18986,7 @@
         <v>10.005221276611842</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="19" t="s">
         <v>17</v>
       </c>
@@ -18870,7 +18995,7 @@
         <v>1.9768874185588052</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" s="19" t="s">
         <v>18</v>
       </c>
@@ -18879,7 +19004,7 @@
         <v>4.0387221247788778</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="19" t="s">
         <v>19</v>
       </c>
@@ -18888,7 +19013,7 @@
         <v>7.9433865703917714</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="19" t="s">
         <v>20</v>
       </c>
@@ -18897,7 +19022,7 @@
         <v>8.9933647000536165</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44" s="19" t="s">
         <v>21</v>
       </c>
@@ -18906,301 +19031,301 @@
         <v>2.9887439951170318</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="I49" s="119"/>
-      <c r="J49" s="121" t="s">
+      <c r="J49" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="K49" s="121"/>
-      <c r="L49" s="121"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
       <c r="M49" s="119"/>
-      <c r="N49" s="121" t="s">
+      <c r="N49" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="121"/>
-      <c r="P49" s="121"/>
+      <c r="O49" s="120"/>
+      <c r="P49" s="120"/>
       <c r="Q49" s="119"/>
-      <c r="R49" s="121" t="s">
+      <c r="R49" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="S49" s="121"/>
-      <c r="T49" s="134"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I50" s="120"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="125" t="s">
+      <c r="S49" s="120"/>
+      <c r="T49" s="121"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="I50" s="136"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="L50" s="126"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="122"/>
-      <c r="O50" s="125" t="s">
+      <c r="L50" s="132"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="130"/>
+      <c r="O50" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="P50" s="129"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="122"/>
-      <c r="S50" s="125" t="s">
+      <c r="P50" s="137"/>
+      <c r="Q50" s="136"/>
+      <c r="R50" s="130"/>
+      <c r="S50" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="T50" s="126"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I51" s="120"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="127"/>
-      <c r="L51" s="128"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="122"/>
-      <c r="O51" s="127"/>
-      <c r="P51" s="130"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="122"/>
-      <c r="S51" s="127"/>
-      <c r="T51" s="128"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T50" s="132"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="I51" s="136"/>
+      <c r="J51" s="130"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="130"/>
+      <c r="O51" s="133"/>
+      <c r="P51" s="138"/>
+      <c r="Q51" s="136"/>
+      <c r="R51" s="130"/>
+      <c r="S51" s="133"/>
+      <c r="T51" s="134"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="I52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="123"/>
-      <c r="L52" s="124"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="135"/>
       <c r="M52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O52" s="123"/>
-      <c r="P52" s="124"/>
+      <c r="O52" s="125"/>
+      <c r="P52" s="135"/>
       <c r="Q52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="R52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S52" s="123"/>
-      <c r="T52" s="131"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S52" s="125"/>
+      <c r="T52" s="126"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="I53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="123">
+      <c r="K53" s="125">
         <f>D34-K57</f>
         <v>-2.5817066304626985</v>
       </c>
-      <c r="L53" s="124"/>
+      <c r="L53" s="135"/>
       <c r="M53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O53" s="123">
+      <c r="O53" s="125">
         <f>B34-O57</f>
         <v>2.5817066304626968</v>
       </c>
-      <c r="P53" s="124"/>
+      <c r="P53" s="135"/>
       <c r="Q53" s="1" t="s">
         <v>23</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S53" s="123">
+      <c r="S53" s="125">
         <f>O53</f>
         <v>2.5817066304626968</v>
       </c>
-      <c r="T53" s="131"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T53" s="126"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="I54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K54" s="123">
+      <c r="K54" s="125">
         <f>H34-K57</f>
         <v>-4.0141669290265201</v>
       </c>
-      <c r="L54" s="124"/>
+      <c r="L54" s="135"/>
       <c r="M54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O54" s="123">
+      <c r="O54" s="125">
         <f>F34-O57</f>
         <v>4.0141669290265165</v>
       </c>
-      <c r="P54" s="124"/>
+      <c r="P54" s="135"/>
       <c r="Q54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="R54" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="S54" s="123">
+      <c r="S54" s="125">
         <f>O54</f>
         <v>4.0141669290265165</v>
       </c>
-      <c r="T54" s="131"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T54" s="126"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="I55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="123">
+      <c r="K55" s="125">
         <f>L34-K57</f>
         <v>1.9523322228064464</v>
       </c>
-      <c r="L55" s="124"/>
+      <c r="L55" s="135"/>
       <c r="M55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O55" s="123">
+      <c r="O55" s="125">
         <f>J34-O57</f>
         <v>-1.9523322228064472</v>
       </c>
-      <c r="P55" s="124"/>
+      <c r="P55" s="135"/>
       <c r="Q55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="S55" s="123">
+      <c r="S55" s="125">
         <f>K55</f>
         <v>1.9523322228064464</v>
       </c>
-      <c r="T55" s="131"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T55" s="126"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="I56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="123">
+      <c r="K56" s="125">
         <f>P34-K57</f>
         <v>-3.0023103524682933</v>
       </c>
-      <c r="L56" s="124"/>
+      <c r="L56" s="135"/>
       <c r="M56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O56" s="123">
+      <c r="O56" s="125">
         <f>N34-O57</f>
         <v>3.0023103524682915</v>
       </c>
-      <c r="P56" s="124"/>
+      <c r="P56" s="135"/>
       <c r="Q56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="S56" s="123">
+      <c r="S56" s="125">
         <f>O56</f>
         <v>3.0023103524682915</v>
       </c>
-      <c r="T56" s="131"/>
-    </row>
-    <row r="57" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T56" s="126"/>
+    </row>
+    <row r="57" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J57" s="4"/>
-      <c r="K57" s="123">
+      <c r="K57" s="125">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="L57" s="124"/>
+      <c r="L57" s="135"/>
       <c r="M57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="123">
+      <c r="O57" s="125">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="P57" s="124"/>
+      <c r="P57" s="135"/>
       <c r="Q57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="R57" s="4"/>
-      <c r="S57" s="123">
+      <c r="S57" s="125">
         <f>R34</f>
         <v>5.9910543475853251</v>
       </c>
-      <c r="T57" s="131"/>
-    </row>
-    <row r="58" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T57" s="126"/>
+    </row>
+    <row r="58" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="132">
+      <c r="K58" s="127">
         <f>SUM(K53:L57)</f>
         <v>-1.6547973415657404</v>
       </c>
-      <c r="L58" s="133"/>
+      <c r="L58" s="129"/>
       <c r="M58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="132">
+      <c r="O58" s="127">
         <f>SUM(O53:P57)</f>
         <v>13.636906036736383</v>
       </c>
-      <c r="P58" s="133"/>
+      <c r="P58" s="129"/>
       <c r="Q58" s="3" t="s">
         <v>29</v>
       </c>
       <c r="R58" s="4"/>
-      <c r="S58" s="132">
+      <c r="S58" s="127">
         <f>SUM(S53:T57)</f>
         <v>17.541570482349279</v>
       </c>
-      <c r="T58" s="138"/>
-    </row>
-    <row r="61" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T58" s="128"/>
+    </row>
+    <row r="61" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="121"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="121"/>
-      <c r="J62" s="134"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="121"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -19232,7 +19357,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>12</v>
       </c>
@@ -19267,19 +19392,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB65" s="19">
         <f>MAX(AC27:BQ67)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A66" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A68" s="35" t="s">
         <v>5</v>
       </c>
@@ -19317,7 +19442,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A69" s="33">
         <v>1</v>
       </c>
@@ -19366,7 +19491,7 @@
         <v>-2.0442063651487121</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A70" s="33">
         <v>2</v>
       </c>
@@ -19415,7 +19540,7 @@
         <v>-8.0909686163949601</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A71" s="33">
         <v>3</v>
       </c>
@@ -19464,7 +19589,7 @@
         <v>-5.1050069670400724</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A72" s="33">
         <v>4</v>
       </c>
@@ -19513,7 +19638,7 @@
         <v>6.0748674785633527</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A73" s="33">
         <v>5</v>
       </c>
@@ -19562,7 +19687,7 @@
         <v>-24.831909343586464</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A74" s="33">
         <v>6</v>
       </c>
@@ -19611,7 +19736,7 @@
         <v>-16.574595611547892</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A75" s="33">
         <v>7</v>
       </c>
@@ -19660,7 +19785,7 @@
         <v>-1.0489681524798404</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A76" s="33">
         <v>8</v>
       </c>
@@ -19709,7 +19834,7 @@
         <v>13.89166084364531</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A77" s="33">
         <v>9</v>
       </c>
@@ -19758,7 +19883,7 @@
         <v>9.4546858513181977</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A78" s="33">
         <v>10</v>
       </c>
@@ -19807,7 +19932,7 @@
         <v>-7.2273672629376673</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A79" s="33">
         <v>11</v>
       </c>
@@ -19856,7 +19981,7 @@
         <v>-26.628102795388816</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A80" s="33">
         <v>12</v>
       </c>
@@ -19905,7 +20030,7 @@
         <v>3.010299956639813</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81" s="33">
         <v>13</v>
       </c>
@@ -19954,7 +20079,7 @@
         <v>6.4425790906585583</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82" s="33">
         <v>14</v>
       </c>
@@ -20003,7 +20128,7 @@
         <v>5.0989813756516558</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83" s="33">
         <v>15</v>
       </c>
@@ -20052,7 +20177,7 @@
         <v>-5.4715545888307009</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="34">
         <v>16</v>
       </c>
@@ -20101,23 +20226,23 @@
         <v>18.811309430306839</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:21" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="135" t="s">
+    <row r="85" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="86" spans="1:21" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="136"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="136"/>
-      <c r="H86" s="136"/>
-      <c r="I86" s="136"/>
-      <c r="J86" s="136"/>
-      <c r="K86" s="137"/>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B86" s="123"/>
+      <c r="C86" s="123"/>
+      <c r="D86" s="123"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="123"/>
+      <c r="H86" s="123"/>
+      <c r="I86" s="123"/>
+      <c r="J86" s="123"/>
+      <c r="K86" s="124"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87" s="24"/>
       <c r="B87" s="25" t="s">
         <v>103</v>
@@ -20150,7 +20275,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="27"/>
       <c r="B88" s="28">
         <f>SUMPRODUCT(B69:B84,$L$69:$L$84)/8</f>
@@ -20193,7 +20318,7 @@
         <v>-1.2688340874221198</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89" s="30" t="s">
         <v>92</v>
       </c>
@@ -20228,7 +20353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="27">
         <f>SUM(J3:J18)/16</f>
         <v>5.9910543475853233</v>
@@ -20274,7 +20399,7 @@
         <v>-0.63441704371105989</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="19" t="s">
         <v>113</v>
       </c>
@@ -20282,7 +20407,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95" s="19" t="s">
         <v>114</v>
       </c>
@@ -20338,7 +20463,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96" s="19" t="s">
         <v>115</v>
       </c>
@@ -20405,7 +20530,7 @@
         <v>-1.44</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A97" s="19" t="s">
         <v>116</v>
       </c>
@@ -20472,7 +20597,7 @@
         <v>-1.79</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A98" s="19" t="s">
         <v>117</v>
       </c>
@@ -20540,7 +20665,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F99" s="2">
         <v>1</v>
       </c>
@@ -20601,7 +20726,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F100" s="2">
         <v>-1</v>
       </c>
@@ -20662,7 +20787,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F101" s="2">
         <v>1</v>
       </c>
@@ -20723,7 +20848,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F102" s="2">
         <v>-1</v>
       </c>
@@ -20784,7 +20909,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F103" s="2">
         <v>1</v>
       </c>
@@ -20845,7 +20970,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F104" s="2">
         <v>-1</v>
       </c>
@@ -20906,7 +21031,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F105" s="2">
         <v>1</v>
       </c>
@@ -20967,7 +21092,7 @@
         <v>-0.63</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F106" s="2">
         <v>-1</v>
       </c>
@@ -21028,7 +21153,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F107" s="2">
         <v>1</v>
       </c>
@@ -21089,7 +21214,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F108" s="2">
         <v>-1</v>
       </c>
@@ -21150,7 +21275,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F109" s="2">
         <v>1</v>
       </c>
@@ -21211,7 +21336,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F110" s="2">
         <v>-1</v>
       </c>
@@ -21272,7 +21397,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F111" s="4">
         <v>1</v>
       </c>
@@ -21333,7 +21458,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.4">
       <c r="F112" s="2">
         <v>-1</v>
       </c>
@@ -21394,7 +21519,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="113" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F113" s="2">
         <v>1</v>
       </c>
@@ -21455,7 +21580,7 @@
         <v>-1.01</v>
       </c>
     </row>
-    <row r="114" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F114" s="2">
         <v>-1</v>
       </c>
@@ -21516,7 +21641,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="115" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F115" s="2">
         <v>1</v>
       </c>
@@ -21577,7 +21702,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="116" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F116" s="2">
         <v>-1</v>
       </c>
@@ -21638,7 +21763,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="117" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F117" s="2">
         <v>1</v>
       </c>
@@ -21699,7 +21824,7 @@
         <v>-0.64</v>
       </c>
     </row>
-    <row r="118" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F118" s="2">
         <v>-1</v>
       </c>
@@ -21760,7 +21885,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="119" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F119" s="2">
         <v>1</v>
       </c>
@@ -21821,7 +21946,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="120" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F120" s="2">
         <v>-1</v>
       </c>
@@ -21882,7 +22007,7 @@
         <v>-0.65</v>
       </c>
     </row>
-    <row r="121" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F121" s="2">
         <v>1</v>
       </c>
@@ -21943,7 +22068,7 @@
         <v>-1.19</v>
       </c>
     </row>
-    <row r="122" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F122" s="2">
         <v>-1</v>
       </c>
@@ -22004,7 +22129,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="123" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F123" s="2">
         <v>1</v>
       </c>
@@ -22065,7 +22190,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="124" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F124" s="2">
         <v>-1</v>
       </c>
@@ -22126,7 +22251,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="125" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F125" s="2">
         <v>1</v>
       </c>
@@ -22187,7 +22312,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="126" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:21" x14ac:dyDescent="0.4">
       <c r="F126" s="2">
         <v>-1</v>
       </c>
@@ -22248,7 +22373,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="127" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:21" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F127" s="4">
         <v>1</v>
       </c>
@@ -22311,18 +22436,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A86:K86"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="S50:T51"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="K50:L51"/>
+    <mergeCell ref="O50:P51"/>
     <mergeCell ref="S54:T54"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="K58:L58"/>
@@ -22339,13 +22459,18 @@
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="O56:P56"/>
     <mergeCell ref="O57:P57"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="Q49:Q51"/>
-    <mergeCell ref="K50:L51"/>
-    <mergeCell ref="O50:P51"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="S50:T51"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A86:K86"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="O58:P58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22354,14 +22479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22369,28 +22494,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="19" customWidth="1"/>
-    <col min="4" max="7" width="9.25" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="19" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="19" customWidth="1"/>
-    <col min="11" max="16" width="9.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" style="19" customWidth="1"/>
+    <col min="4" max="7" width="9.26953125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="3.453125" style="19" customWidth="1"/>
+    <col min="11" max="16" width="9.453125" style="19" customWidth="1"/>
     <col min="17" max="17" width="10" style="19" customWidth="1"/>
     <col min="18" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
@@ -22450,7 +22575,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="47">
         <v>1</v>
       </c>
@@ -22516,7 +22641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -22582,7 +22707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -22648,7 +22773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="47">
         <v>4</v>
       </c>
@@ -22714,7 +22839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="47">
         <v>5</v>
       </c>
@@ -22780,7 +22905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="47">
         <v>6</v>
       </c>
@@ -22846,7 +22971,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="47">
         <v>7</v>
       </c>
@@ -22912,7 +23037,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="48">
         <v>8</v>
       </c>
@@ -22978,7 +23103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="H10" s="19" t="s">
         <v>82</v>
       </c>
@@ -23014,7 +23139,7 @@
         <v>-0.46416666666666373</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L11" s="54" t="s">
         <v>139</v>
       </c>
@@ -23043,7 +23168,7 @@
         <v>-0.23208333333333186</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
         <v>83</v>
       </c>
@@ -23052,7 +23177,7 @@
         <v>1.8156611111111003</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>84</v>
       </c>
@@ -23061,7 +23186,7 @@
         <v>1.3474646975379727</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C16" s="19" t="s">
         <v>103</v>
       </c>
@@ -23084,7 +23209,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="19">
         <v>1</v>
       </c>
@@ -23117,7 +23242,7 @@
         <v>-59.026666666666664</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="19">
         <v>2</v>
       </c>
@@ -23150,7 +23275,7 @@
         <v>76.313333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="19">
         <v>3</v>
       </c>
@@ -23183,7 +23308,7 @@
         <v>28.870000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="19">
         <v>4</v>
       </c>
@@ -23216,7 +23341,7 @@
         <v>-51.41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="19">
         <v>5</v>
       </c>
@@ -23249,7 +23374,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="19">
         <v>6</v>
       </c>
@@ -23282,7 +23407,7 @@
         <v>-41.626666666666665</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="19">
         <v>7</v>
       </c>
@@ -23315,7 +23440,7 @@
         <v>-48.34</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="19">
         <v>8</v>
       </c>
@@ -23348,7 +23473,7 @@
         <v>73.063333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
         <v>118</v>
       </c>
@@ -23385,7 +23510,7 @@
         <v>-0.46416666666666373</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
         <v>119</v>
       </c>
@@ -23422,7 +23547,7 @@
         <v>-0.23208333333333186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" s="19">
         <f>_xlfn.T.INV(0.025,16)</f>
         <v>-2.119905299221255</v>
@@ -23433,7 +23558,7 @@
         <v>-2.8564975528243139</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B30" s="19">
         <f>_xlfn.T.INV(0.975,16)</f>
         <v>2.119905299221255</v>
@@ -23443,12 +23568,12 @@
         <v>2.8564975528243139</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="58"/>
       <c r="B33" s="59" t="s">
         <v>126</v>
@@ -23475,7 +23600,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
         <v>87</v>
       </c>
@@ -23512,7 +23637,7 @@
         <v>1.1961654430788251</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="14" t="s">
         <v>88</v>
       </c>
@@ -23549,7 +23674,7 @@
         <v>-1.6603321097454888</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
         <v>85</v>
       </c>
@@ -23586,7 +23711,7 @@
         <v>-0.34447408345077118</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
         <v>127</v>
       </c>
@@ -23623,7 +23748,7 @@
         <v>0.31625603321797269</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="14" t="s">
         <v>141</v>
       </c>
@@ -23652,7 +23777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="16" t="s">
         <v>147</v>
       </c>
@@ -23681,8 +23806,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="12" t="s">
         <v>190</v>
@@ -23728,7 +23853,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="87">
         <v>1</v>
       </c>
@@ -23792,7 +23917,7 @@
         <v>-35.408910608317413</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="87">
         <v>2</v>
       </c>
@@ -23856,7 +23981,7 @@
         <v>37.650254614759426</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="87">
         <v>3</v>
       </c>
@@ -23920,7 +24045,7 @@
         <v>29.000941294066639</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="87">
         <v>4</v>
       </c>
@@ -23984,7 +24109,7 @@
         <v>-34.192524115312551</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="87">
         <v>5</v>
       </c>
@@ -24048,7 +24173,7 @@
         <v>25.647378596124927</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="87">
         <v>6</v>
       </c>
@@ -24112,7 +24237,7 @@
         <v>-32.299547823475152</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="87">
         <v>7</v>
       </c>
@@ -24176,7 +24301,7 @@
         <v>-33.656926814242361</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="70">
         <v>8</v>
       </c>
@@ -24240,7 +24365,7 @@
         <v>37.265668219355973</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="119" t="s">
         <v>138</v>
       </c>
@@ -24290,7 +24415,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="139"/>
       <c r="B55" s="56">
         <f>SUM(B46:B53)/4</f>
@@ -24350,7 +24475,7 @@
         <v>-1.498416659260128</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="19" t="s">
         <v>209</v>
       </c>
@@ -24364,7 +24489,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L57" s="19" t="s">
         <v>212</v>
       </c>
@@ -24384,7 +24509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L58" s="19" t="s">
         <v>213</v>
       </c>
@@ -24404,7 +24529,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L59" s="19" t="s">
         <v>214</v>
       </c>
@@ -24424,7 +24549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="L60" s="19" t="s">
         <v>216</v>
       </c>
@@ -24447,8 +24572,8 @@
         <v>37.650254614759426</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="39"/>
       <c r="B62" s="40" t="s">
         <v>140</v>
@@ -24478,7 +24603,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="43"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42">
@@ -24525,7 +24650,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="43"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42">
@@ -24556,7 +24681,7 @@
       <c r="J64" s="19">
         <v>36.901529423353978</v>
       </c>
-      <c r="L64" s="120"/>
+      <c r="L64" s="136"/>
       <c r="M64" s="85">
         <v>1</v>
       </c>
@@ -24571,7 +24696,7 @@
         <v>78.956666666666663</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A65" s="43"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42">
@@ -24602,7 +24727,7 @@
       <c r="J65" s="19">
         <v>15.893124225939889</v>
       </c>
-      <c r="L65" s="120"/>
+      <c r="L65" s="136"/>
       <c r="M65" s="85">
         <v>120</v>
       </c>
@@ -24614,7 +24739,7 @@
       </c>
       <c r="P65" s="140"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A66" s="43"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42">
@@ -24645,7 +24770,7 @@
       <c r="J66" s="19">
         <v>24.853402575389477</v>
       </c>
-      <c r="L66" s="120" t="s">
+      <c r="L66" s="136" t="s">
         <v>236</v>
       </c>
       <c r="M66" s="85" t="s">
@@ -24661,7 +24786,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A67" s="43"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42">
@@ -24692,7 +24817,7 @@
       <c r="J67" s="19">
         <v>12.694791580559013</v>
       </c>
-      <c r="L67" s="120"/>
+      <c r="L67" s="136"/>
       <c r="M67" s="85">
         <v>1</v>
       </c>
@@ -24707,7 +24832,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="43"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42">
@@ -24750,7 +24875,7 @@
       </c>
       <c r="P68" s="141"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A69" s="43"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42">
@@ -24781,7 +24906,7 @@
       <c r="J69" s="19">
         <v>24.912937882314552</v>
       </c>
-      <c r="L69" s="120" t="s">
+      <c r="L69" s="136" t="s">
         <v>235</v>
       </c>
       <c r="M69" s="88" t="s">
@@ -24797,7 +24922,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A70" s="43"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42">
@@ -24828,7 +24953,7 @@
       <c r="J70" s="19">
         <v>30.279746357001226</v>
       </c>
-      <c r="L70" s="120"/>
+      <c r="L70" s="136"/>
       <c r="M70" s="88">
         <v>1</v>
       </c>
@@ -24843,7 +24968,7 @@
         <v>37.650254614759426</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="43" t="s">
         <v>138</v>
       </c>
@@ -24883,7 +25008,7 @@
       </c>
       <c r="P71" s="141"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="54" t="s">
         <v>139</v>
       </c>
@@ -24912,8 +25037,8 @@
         <v>-0.23208333333333186</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A76" s="75" t="s">
         <v>138</v>
       </c>
@@ -24969,7 +25094,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="78"/>
       <c r="B77" s="79"/>
       <c r="C77" s="79">
@@ -25031,7 +25156,7 @@
         <v>-1.498416659260128</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="80" t="s">
         <v>208</v>
       </c>
@@ -25121,31 +25246,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -25153,7 +25278,7 @@
         <v>0.98944603157237543</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -25161,7 +25286,7 @@
         <v>0.97900344939432205</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -25169,7 +25294,7 @@
         <v>0.96981745850433798</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -25177,7 +25302,7 @@
         <v>3.3006009553817139</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -25185,12 +25310,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>59</v>
@@ -25208,7 +25333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -25228,7 +25353,7 @@
         <v>3.2000830664664587E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -25244,7 +25369,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -25258,8 +25383,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>64</v>
@@ -25286,7 +25411,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -25315,7 +25440,7 @@
         <v>51.296998776412167</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -25344,7 +25469,7 @@
         <v>12.162832109745494</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -25373,7 +25498,7 @@
         <v>1.9803321097454964</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -25402,7 +25527,7 @@
         <v>-2.6080012235878347</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -25431,7 +25556,7 @@
         <v>2.5094987764121637</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -25460,7 +25585,7 @@
         <v>2.2061654430788264</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -25489,7 +25614,7 @@
         <v>15.745332109745492</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>89</v>
       </c>
@@ -25525,28 +25650,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -25554,7 +25679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -25562,7 +25687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -25570,7 +25695,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -25578,7 +25703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -25586,12 +25711,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>59</v>
@@ -25609,7 +25734,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -25629,7 +25754,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -25645,7 +25770,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -25659,8 +25784,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>64</v>
@@ -25687,7 +25812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -25716,7 +25841,7 @@
         <v>-24.291212616486391</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -25745,7 +25870,7 @@
         <v>-3.7866985515594669</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -25774,7 +25899,7 @@
         <v>0.30640985632510942</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -25803,7 +25928,7 @@
         <v>2.2501020824080062</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -25832,7 +25957,7 @@
         <v>0.20492684552540205</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -25861,7 +25986,7 @@
         <v>0.54945274891786022</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -25890,7 +26015,7 @@
         <v>-5.8616414419046068</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>89</v>
       </c>
@@ -25926,16 +26051,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
@@ -25973,7 +26098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="63" t="s">
         <v>155</v>
       </c>
@@ -26034,7 +26159,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="64" t="s">
         <v>156</v>
       </c>
@@ -26095,7 +26220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>157</v>
       </c>
@@ -26156,7 +26281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="64" t="s">
         <v>158</v>
       </c>
@@ -26217,7 +26342,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="64" t="s">
         <v>159</v>
       </c>
@@ -26278,7 +26403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>160</v>
       </c>
@@ -26339,7 +26464,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="64" t="s">
         <v>161</v>
       </c>
@@ -26400,7 +26525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="66" t="s">
         <v>162</v>
       </c>
@@ -26461,7 +26586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="63" t="s">
         <v>163</v>
       </c>
@@ -26494,7 +26619,7 @@
         <v>58.58</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="64" t="s">
         <v>164</v>
       </c>
@@ -26527,7 +26652,7 @@
         <v>77.569999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="64" t="s">
         <v>165</v>
       </c>
@@ -26560,7 +26685,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="64" t="s">
         <v>166</v>
       </c>
@@ -26593,7 +26718,7 @@
         <v>48.49</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="64" t="s">
         <v>167</v>
       </c>
@@ -26626,7 +26751,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="64" t="s">
         <v>168</v>
       </c>
@@ -26659,7 +26784,7 @@
         <v>44.31</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="64" t="s">
         <v>169</v>
       </c>
@@ -26692,7 +26817,7 @@
         <v>49.53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="66" t="s">
         <v>170</v>
       </c>
@@ -26725,7 +26850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="67" t="s">
         <v>171</v>
       </c>
@@ -26758,7 +26883,7 @@
         <v>57.07</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="64" t="s">
         <v>172</v>
       </c>
@@ -26791,7 +26916,7 @@
         <v>75.75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="64" t="s">
         <v>173</v>
       </c>
@@ -26824,7 +26949,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="64" t="s">
         <v>174</v>
       </c>
@@ -26857,7 +26982,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="64" t="s">
         <v>175</v>
       </c>
@@ -26890,7 +27015,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="64" t="s">
         <v>176</v>
       </c>
@@ -26923,7 +27048,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="64" t="s">
         <v>177</v>
       </c>
@@ -26956,7 +27081,7 @@
         <v>50.29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="66" t="s">
         <v>178</v>
       </c>
@@ -26997,32 +27122,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X269"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I250" sqref="I250"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="14.5" style="19" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="19" customWidth="1"/>
-    <col min="7" max="8" width="14.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="19" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="19" customWidth="1"/>
+    <col min="1" max="4" width="14.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="19" customWidth="1"/>
+    <col min="7" max="8" width="14.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" style="19" customWidth="1"/>
     <col min="13" max="13" width="26" style="19" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="19" customWidth="1"/>
-    <col min="15" max="16" width="4.5" style="19" customWidth="1"/>
-    <col min="17" max="17" width="15.375" style="19" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="19" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" style="19" customWidth="1"/>
+    <col min="15" max="16" width="4.453125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="10.7265625" style="19" customWidth="1"/>
     <col min="19" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B1" s="45" t="s">
         <v>5</v>
       </c>
@@ -27088,7 +27213,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B2" s="47">
         <v>1</v>
       </c>
@@ -27162,7 +27287,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B3" s="47">
         <v>2</v>
       </c>
@@ -27236,7 +27361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B4" s="47">
         <v>3</v>
       </c>
@@ -27310,7 +27435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B5" s="47">
         <v>4</v>
       </c>
@@ -27384,7 +27509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B6" s="47">
         <v>5</v>
       </c>
@@ -27458,7 +27583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B7" s="47">
         <v>6</v>
       </c>
@@ -27532,7 +27657,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B8" s="47">
         <v>7</v>
       </c>
@@ -27606,7 +27731,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="48">
         <v>8</v>
       </c>
@@ -27680,7 +27805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
       <c r="I10" s="19" t="s">
         <v>82</v>
       </c>
@@ -27716,7 +27841,7 @@
         <v>-0.46416666666666373</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I11" s="19" t="s">
         <v>277</v>
       </c>
@@ -27756,7 +27881,7 @@
         <v>-0.23208333333333186</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>83</v>
       </c>
@@ -27765,7 +27890,7 @@
         <v>1.8156611111111003</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>84</v>
       </c>
@@ -27774,7 +27899,7 @@
         <v>1.3474646975379727</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="D16" s="19" t="s">
         <v>103</v>
       </c>
@@ -27797,7 +27922,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="19">
         <v>1</v>
       </c>
@@ -27830,7 +27955,7 @@
         <v>-59.026666666666664</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="19">
         <v>2</v>
       </c>
@@ -27863,7 +27988,7 @@
         <v>76.313333333333333</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="19">
         <v>3</v>
       </c>
@@ -27896,7 +28021,7 @@
         <v>28.870000000000005</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="19">
         <v>4</v>
       </c>
@@ -27929,7 +28054,7 @@
         <v>-51.41</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="19">
         <v>5</v>
       </c>
@@ -27962,7 +28087,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="19">
         <v>6</v>
       </c>
@@ -27995,7 +28120,7 @@
         <v>-41.626666666666665</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="19">
         <v>7</v>
       </c>
@@ -28028,7 +28153,7 @@
         <v>-48.34</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="19">
         <v>8</v>
       </c>
@@ -28061,7 +28186,7 @@
         <v>73.063333333333333</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="19" t="s">
         <v>118</v>
       </c>
@@ -28098,7 +28223,7 @@
         <v>-0.46416666666666373</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="19" t="s">
         <v>119</v>
       </c>
@@ -28135,7 +28260,7 @@
         <v>-0.23208333333333186</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C29" s="19">
         <f>_xlfn.T.INV(0.025,16)</f>
         <v>-2.119905299221255</v>
@@ -28146,7 +28271,7 @@
         <v>-2.8564975528243139</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C30" s="19">
         <f>_xlfn.T.INV(0.975,16)</f>
         <v>2.119905299221255</v>
@@ -28156,12 +28281,12 @@
         <v>2.8564975528243139</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B33" s="58"/>
       <c r="C33" s="59" t="s">
         <v>126</v>
@@ -28188,7 +28313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B34" s="14" t="s">
         <v>87</v>
       </c>
@@ -28225,7 +28350,7 @@
         <v>1.1961654430788251</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B35" s="14" t="s">
         <v>88</v>
       </c>
@@ -28262,7 +28387,7 @@
         <v>-1.6603321097454888</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B36" s="14" t="s">
         <v>85</v>
       </c>
@@ -28299,7 +28424,7 @@
         <v>-0.34447408345077118</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B37" s="14" t="s">
         <v>127</v>
       </c>
@@ -28336,7 +28461,7 @@
         <v>0.31625603321797269</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B38" s="14" t="s">
         <v>141</v>
       </c>
@@ -28365,7 +28490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="16" t="s">
         <v>147</v>
       </c>
@@ -28394,8 +28519,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B45" s="11"/>
       <c r="C45" s="12" t="s">
         <v>6</v>
@@ -28441,7 +28566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B46" s="94">
         <v>1</v>
       </c>
@@ -28505,7 +28630,7 @@
         <v>-35.408910608317413</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B47" s="94">
         <v>2</v>
       </c>
@@ -28569,7 +28694,7 @@
         <v>37.650254614759426</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B48" s="94">
         <v>3</v>
       </c>
@@ -28633,7 +28758,7 @@
         <v>29.000941294066639</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B49" s="94">
         <v>4</v>
       </c>
@@ -28697,7 +28822,7 @@
         <v>-34.192524115312551</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B50" s="94">
         <v>5</v>
       </c>
@@ -28761,7 +28886,7 @@
         <v>25.647378596124927</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B51" s="94">
         <v>6</v>
       </c>
@@ -28825,7 +28950,7 @@
         <v>-32.299547823475152</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B52" s="94">
         <v>7</v>
       </c>
@@ -28889,7 +29014,7 @@
         <v>-33.656926814242361</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="70">
         <v>8</v>
       </c>
@@ -28953,7 +29078,7 @@
         <v>37.265668219355973</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B54" s="119" t="s">
         <v>138</v>
       </c>
@@ -29003,7 +29128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="139"/>
       <c r="C55" s="56">
         <f>SUM(C46:C53)/4</f>
@@ -29063,7 +29188,7 @@
         <v>-1.498416659260128</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B56" s="19" t="s">
         <v>209</v>
       </c>
@@ -29077,7 +29202,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M57" s="19" t="s">
         <v>4</v>
       </c>
@@ -29097,7 +29222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M58" s="19" t="s">
         <v>3</v>
       </c>
@@ -29117,7 +29242,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M59" s="19" t="s">
         <v>214</v>
       </c>
@@ -29137,7 +29262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.4">
       <c r="M60" s="19" t="s">
         <v>120</v>
       </c>
@@ -29160,8 +29285,8 @@
         <v>37.650254614759426</v>
       </c>
     </row>
-    <row r="61" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B62" s="90"/>
       <c r="C62" s="91" t="s">
         <v>0</v>
@@ -29191,7 +29316,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B63" s="94"/>
       <c r="C63" s="93"/>
       <c r="D63" s="93">
@@ -29238,7 +29363,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B64" s="94"/>
       <c r="C64" s="93"/>
       <c r="D64" s="93">
@@ -29269,7 +29394,7 @@
       <c r="K64" s="19">
         <v>36.901529423353978</v>
       </c>
-      <c r="M64" s="120"/>
+      <c r="M64" s="136"/>
       <c r="N64" s="93">
         <v>1</v>
       </c>
@@ -29284,7 +29409,7 @@
         <v>78.956666666666663</v>
       </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B65" s="94"/>
       <c r="C65" s="93"/>
       <c r="D65" s="93">
@@ -29315,7 +29440,7 @@
       <c r="K65" s="19">
         <v>15.893124225939889</v>
       </c>
-      <c r="M65" s="120"/>
+      <c r="M65" s="136"/>
       <c r="N65" s="93">
         <v>120</v>
       </c>
@@ -29327,7 +29452,7 @@
       </c>
       <c r="Q65" s="140"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B66" s="94"/>
       <c r="C66" s="93"/>
       <c r="D66" s="93">
@@ -29358,7 +29483,7 @@
       <c r="K66" s="19">
         <v>24.853402575389477</v>
       </c>
-      <c r="M66" s="120" t="s">
+      <c r="M66" s="136" t="s">
         <v>236</v>
       </c>
       <c r="N66" s="93" t="s">
@@ -29374,7 +29499,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B67" s="94"/>
       <c r="C67" s="93"/>
       <c r="D67" s="93">
@@ -29405,7 +29530,7 @@
       <c r="K67" s="19">
         <v>12.694791580559013</v>
       </c>
-      <c r="M67" s="120"/>
+      <c r="M67" s="136"/>
       <c r="N67" s="93">
         <v>1</v>
       </c>
@@ -29420,7 +29545,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="68" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B68" s="94"/>
       <c r="C68" s="93"/>
       <c r="D68" s="93">
@@ -29463,7 +29588,7 @@
       </c>
       <c r="Q68" s="141"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B69" s="94"/>
       <c r="C69" s="93"/>
       <c r="D69" s="93">
@@ -29494,7 +29619,7 @@
       <c r="K69" s="19">
         <v>24.912937882314552</v>
       </c>
-      <c r="M69" s="120" t="s">
+      <c r="M69" s="136" t="s">
         <v>235</v>
       </c>
       <c r="N69" s="93" t="s">
@@ -29510,7 +29635,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B70" s="94"/>
       <c r="C70" s="93"/>
       <c r="D70" s="93">
@@ -29541,7 +29666,7 @@
       <c r="K70" s="19">
         <v>30.279746357001226</v>
       </c>
-      <c r="M70" s="120"/>
+      <c r="M70" s="136"/>
       <c r="N70" s="93">
         <v>1</v>
       </c>
@@ -29556,7 +29681,7 @@
         <v>37.650254614759426</v>
       </c>
     </row>
-    <row r="71" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B71" s="94" t="s">
         <v>138</v>
       </c>
@@ -29596,7 +29721,7 @@
       </c>
       <c r="Q71" s="141"/>
     </row>
-    <row r="72" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="95" t="s">
         <v>139</v>
       </c>
@@ -29625,8 +29750,8 @@
         <v>-0.23208333333333186</v>
       </c>
     </row>
-    <row r="75" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B76" s="75" t="s">
         <v>138</v>
       </c>
@@ -29682,7 +29807,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="78"/>
       <c r="C77" s="79"/>
       <c r="D77" s="79">
@@ -29744,7 +29869,7 @@
         <v>-1.498416659260128</v>
       </c>
     </row>
-    <row r="78" spans="2:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B78" s="80" t="s">
         <v>208</v>
       </c>
@@ -29816,8 +29941,8 @@
         <v>-0.74920832963006401</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="19" t="s">
         <v>266</v>
       </c>
@@ -29849,7 +29974,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="19">
         <v>1</v>
       </c>
@@ -29885,7 +30010,7 @@
         <v>2.403333333333336</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="19">
         <v>2</v>
       </c>
@@ -29921,7 +30046,7 @@
         <v>-0.69333333333332803</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="19">
         <v>3</v>
       </c>
@@ -29957,7 +30082,7 @@
         <v>-1.360000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="19">
         <v>4</v>
       </c>
@@ -29993,7 +30118,7 @@
         <v>-3.9999999999999147E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="19">
         <v>5</v>
       </c>
@@ -30029,7 +30154,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="19">
         <v>6</v>
       </c>
@@ -30065,7 +30190,7 @@
         <v>1.9533333333333331</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="19">
         <v>7</v>
       </c>
@@ -30101,7 +30226,7 @@
         <v>-3.1400000000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="19">
         <v>8</v>
       </c>
@@ -30137,7 +30262,7 @@
         <v>-2.5533333333333275</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="19">
         <v>9</v>
       </c>
@@ -30173,7 +30298,7 @@
         <v>-0.44666666666666544</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="19">
         <v>10</v>
       </c>
@@ -30209,7 +30334,7 @@
         <v>1.2566666666666606</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="19">
         <v>11</v>
       </c>
@@ -30245,7 +30370,7 @@
         <v>5.1599999999999966</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="19">
         <v>12</v>
       </c>
@@ -30281,7 +30406,7 @@
         <v>-2.9199999999999946</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="19">
         <v>13</v>
       </c>
@@ -30317,7 +30442,7 @@
         <v>0.39000000000000057</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="19">
         <v>14</v>
       </c>
@@ -30353,7 +30478,7 @@
         <v>2.6833333333333371</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="19">
         <v>15</v>
       </c>
@@ -30389,7 +30514,7 @@
         <v>1.1899999999999977</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="19">
         <v>16</v>
       </c>
@@ -30425,7 +30550,7 @@
         <v>0.93666666666666742</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="19">
         <v>17</v>
       </c>
@@ -30461,7 +30586,7 @@
         <v>-1.9566666666666634</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="19">
         <v>18</v>
       </c>
@@ -30497,7 +30622,7 @@
         <v>-0.56333333333333258</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="19">
         <v>19</v>
       </c>
@@ -30533,7 +30658,7 @@
         <v>-3.8000000000000043</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="19">
         <v>20</v>
       </c>
@@ -30569,7 +30694,7 @@
         <v>2.9600000000000009</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="19">
         <v>21</v>
       </c>
@@ -30605,7 +30730,7 @@
         <v>-4.8900000000000006</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="19">
         <v>22</v>
       </c>
@@ -30641,7 +30766,7 @@
         <v>-4.6366666666666632</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="19">
         <v>23</v>
       </c>
@@ -30677,7 +30802,7 @@
         <v>1.9499999999999957</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="19">
         <v>24</v>
       </c>
@@ -30713,7 +30838,7 @@
         <v>1.6166666666666742</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="B109" s="19" t="s">
         <v>262</v>
       </c>
@@ -30721,7 +30846,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="17" x14ac:dyDescent="0.4">
       <c r="B110" s="19" t="s">
         <v>266</v>
       </c>
@@ -30738,7 +30863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B111" s="19">
         <v>1</v>
       </c>
@@ -30758,7 +30883,7 @@
         <v>-6.3776205949555118</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B112" s="19">
         <v>2</v>
       </c>
@@ -30778,7 +30903,7 @@
         <v>-4.8035520548914059</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B113" s="19">
         <v>3</v>
       </c>
@@ -30798,7 +30923,7 @@
         <v>-3.9394847909951278</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B114" s="19">
         <v>4</v>
       </c>
@@ -30821,7 +30946,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B115" s="19">
         <v>5</v>
       </c>
@@ -30841,7 +30966,7 @@
         <v>-2.7777834618357535</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B116" s="19">
         <v>6</v>
       </c>
@@ -30861,7 +30986,7 @@
         <v>-2.3220376041503523</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B117" s="19">
         <v>7</v>
       </c>
@@ -30881,7 +31006,7 @@
         <v>-1.9109201944016372</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B118" s="19">
         <v>8</v>
       </c>
@@ -30901,7 +31026,7 @@
         <v>-1.5304292368910317</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B119" s="19">
         <v>9</v>
       </c>
@@ -30921,7 +31046,7 @@
         <v>-1.1713465300988564</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B120" s="19">
         <v>10</v>
       </c>
@@ -30941,7 +31066,7 @@
         <v>-0.82708217290774955</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B121" s="19">
         <v>11</v>
       </c>
@@ -30961,7 +31086,7 @@
         <v>-0.49256237725078916</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B122" s="19">
         <v>12</v>
       </c>
@@ -30981,7 +31106,7 @@
         <v>-0.16358717343097795</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B123" s="19">
         <v>13</v>
       </c>
@@ -31001,7 +31126,7 @@
         <v>0.16358717343097065</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B124" s="19">
         <v>14</v>
       </c>
@@ -31021,7 +31146,7 @@
         <v>0.4925623772507815</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B125" s="19">
         <v>15</v>
       </c>
@@ -31041,7 +31166,7 @@
         <v>0.82708217290774144</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B126" s="19">
         <v>16</v>
       </c>
@@ -31061,7 +31186,7 @@
         <v>1.1713465300988488</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B127" s="19">
         <v>17</v>
       </c>
@@ -31081,7 +31206,7 @@
         <v>1.5304292368910242</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B128" s="19">
         <v>18</v>
       </c>
@@ -31101,7 +31226,7 @@
         <v>1.9109201944016285</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B129" s="19">
         <v>19</v>
       </c>
@@ -31121,7 +31246,7 @@
         <v>2.3220376041503443</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B130" s="19">
         <v>20</v>
       </c>
@@ -31141,7 +31266,7 @@
         <v>2.7777834618357455</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B131" s="19">
         <v>21</v>
       </c>
@@ -31161,7 +31286,7 @@
         <v>3.3017048961195616</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B132" s="19">
         <v>22</v>
       </c>
@@ -31181,7 +31306,7 @@
         <v>3.9394847909951185</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B133" s="19">
         <v>23</v>
       </c>
@@ -31201,7 +31326,7 @@
         <v>4.8035520548914015</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B134" s="19">
         <v>24</v>
       </c>
@@ -31221,7 +31346,7 @@
         <v>6.3776205949555003</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B135" s="19" t="s">
         <v>264</v>
       </c>
@@ -31230,7 +31355,7 @@
         <v>-3.8487731520338757E-15</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B136" s="19" t="s">
         <v>265</v>
       </c>
@@ -31239,8 +31364,8 @@
         <v>3.13114381563717</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B139" s="45" t="s">
         <v>5</v>
       </c>
@@ -31263,7 +31388,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B140" s="47">
         <v>1</v>
       </c>
@@ -31285,7 +31410,7 @@
         <v>57.487500000000004</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B141" s="47">
         <v>2</v>
       </c>
@@ -31307,7 +31432,7 @@
         <v>78.956666666666663</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B142" s="47">
         <v>3</v>
       </c>
@@ -31329,7 +31454,7 @@
         <v>28.853333333333332</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B143" s="47">
         <v>4</v>
       </c>
@@ -31351,7 +31476,7 @@
         <v>50.322499999999998</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B144" s="47">
         <v>5</v>
       </c>
@@ -31373,7 +31498,7 @@
         <v>20.780833333333327</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B145" s="47">
         <v>6</v>
       </c>
@@ -31395,7 +31520,7 @@
         <v>42.249999999999993</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B146" s="47">
         <v>7</v>
       </c>
@@ -31417,7 +31542,7 @@
         <v>49.414999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B147" s="48">
         <v>8</v>
       </c>
@@ -31439,72 +31564,72 @@
         <v>70.884166666666658</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="19" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="19" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="19">
         <f>2*J11/(24-8)</f>
         <v>10.893966666666602</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="19" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="19">
         <f>(24-8)*LN(A152)-(2*LN(J2)+2*LN(J3)+2*LN(J4)+2*LN(J5)+2*LN(J6)+2*LN(J7)+2*LN(J8)+2*LN(J9))</f>
         <v>5.2057980668508534</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="19" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="19">
         <f>1+1/(3*(8-1))*(8*1/2-1/16)</f>
         <v>1.1875</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="19" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="19">
         <f>A154/A156</f>
         <v>4.3838299510322978</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="19">
         <f>_xlfn.CHISQ.INV(1-0.1,7)</f>
         <v>12.017036623780532</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="90"/>
       <c r="B167" s="91" t="s">
         <v>0</v>
@@ -31531,7 +31656,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="94"/>
       <c r="B168" s="93"/>
       <c r="C168" s="93">
@@ -31560,7 +31685,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="94"/>
       <c r="B169" s="93"/>
       <c r="C169" s="93">
@@ -31589,7 +31714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="94"/>
       <c r="B170" s="93"/>
       <c r="C170" s="93">
@@ -31618,7 +31743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="94"/>
       <c r="B171" s="93"/>
       <c r="C171" s="93">
@@ -31647,7 +31772,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="94"/>
       <c r="B172" s="93"/>
       <c r="C172" s="93">
@@ -31676,7 +31801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="94"/>
       <c r="B173" s="93"/>
       <c r="C173" s="93">
@@ -31705,7 +31830,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="94"/>
       <c r="B174" s="93"/>
       <c r="C174" s="93">
@@ -31734,7 +31859,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="94"/>
       <c r="B175" s="93"/>
       <c r="C175" s="93">
@@ -31763,7 +31888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="94" t="s">
         <v>138</v>
       </c>
@@ -31797,7 +31922,7 @@
         <v>-0.69782943954573806</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="95" t="s">
         <v>139</v>
       </c>
@@ -31834,45 +31959,45 @@
         <v>-0.34891471977286903</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="19">
         <f>((F176)^2+I176^2)/2</f>
         <v>0.32747298738234309</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="19" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="19">
         <f>SQRT(A180)</f>
         <v>0.57225255559267107</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="19">
         <f>_xlfn.T.INV(0.995,2)</f>
         <v>9.9248432009182892</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B186" s="19" t="s">
         <v>287</v>
       </c>
@@ -31895,7 +32020,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="19" t="s">
         <v>294</v>
       </c>
@@ -31928,7 +32053,7 @@
         <v>4.9816874460362985</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="19" t="s">
         <v>295</v>
       </c>
@@ -31961,7 +32086,7 @@
         <v>-6.3773463251277747</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="19" t="s">
         <v>297</v>
       </c>
@@ -31994,7 +32119,7 @@
         <v>-1.2194431160259467</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="19" t="s">
         <v>296</v>
       </c>
@@ -32027,7 +32152,7 @@
         <v>8.674255471845535E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="19" t="s">
         <v>298</v>
       </c>
@@ -32053,12 +32178,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="19" t="s">
         <v>303</v>
       </c>
@@ -32075,7 +32200,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="19">
         <v>1</v>
       </c>
@@ -32099,7 +32224,7 @@
         <v>-0.83848378240503219</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="19">
         <v>2</v>
       </c>
@@ -32123,7 +32248,7 @@
         <v>-0.45301721638697023</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="19">
         <v>3</v>
       </c>
@@ -32147,7 +32272,7 @@
         <v>-0.20950529829784828</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="19">
         <v>4</v>
       </c>
@@ -32171,7 +32296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="19">
         <v>5</v>
       </c>
@@ -32195,7 +32320,7 @@
         <v>0.20950529829784834</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="19">
         <v>6</v>
       </c>
@@ -32219,7 +32344,7 @@
         <v>0.45301721638697023</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="19">
         <v>7</v>
       </c>
@@ -32243,12 +32368,12 @@
         <v>0.83848378240503241</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B206" s="19" t="s">
         <v>307</v>
       </c>
@@ -32262,7 +32387,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B207" s="19">
         <f>B177</f>
         <v>24.291212616486391</v>
@@ -32280,7 +32405,7 @@
         <v>5.8616414419046077</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C208" s="19" t="s">
         <v>311</v>
       </c>
@@ -32291,7 +32416,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C209" s="19">
         <v>1</v>
       </c>
@@ -32302,7 +32427,7 @@
         <v>-0.99999999999999989</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" s="19" t="s">
         <v>313</v>
       </c>
@@ -32314,8 +32439,8 @@
         <v>36.189654692358474</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" s="45" t="s">
         <v>5</v>
       </c>
@@ -32350,7 +32475,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" s="47">
         <v>1</v>
       </c>
@@ -32389,7 +32514,7 @@
         <v>-32.25847180659887</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" s="47">
         <v>2</v>
       </c>
@@ -32428,7 +32553,7 @@
         <v>-27.4962084898306</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" s="47">
         <v>3</v>
       </c>
@@ -32467,7 +32592,7 @@
         <v>-37.053318005467176</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" s="47">
         <v>4</v>
       </c>
@@ -32506,7 +32631,7 @@
         <v>-33.741526243370735</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" s="47">
         <v>5</v>
       </c>
@@ -32545,7 +32670,7 @@
         <v>-38.039253958242064</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" s="47">
         <v>6</v>
       </c>
@@ -32584,7 +32709,7 @@
         <v>-35.338081676183947</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" s="47">
         <v>7</v>
       </c>
@@ -32623,7 +32748,7 @@
         <v>-34.271259411334526</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A223" s="48">
         <v>8</v>
       </c>
@@ -32662,12 +32787,12 @@
         <v>-28.626803630045615</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A226" s="19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="111"/>
       <c r="B227" s="112" t="s">
         <v>0</v>
@@ -32694,7 +32819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="115"/>
       <c r="B228" s="114"/>
       <c r="C228" s="114">
@@ -32723,7 +32848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="115"/>
       <c r="B229" s="114"/>
       <c r="C229" s="114">
@@ -32752,7 +32877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="115"/>
       <c r="B230" s="114"/>
       <c r="C230" s="114">
@@ -32781,7 +32906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" s="115"/>
       <c r="B231" s="114"/>
       <c r="C231" s="114">
@@ -32810,7 +32935,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="115"/>
       <c r="B232" s="114"/>
       <c r="C232" s="114">
@@ -32839,7 +32964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="115"/>
       <c r="B233" s="114"/>
       <c r="C233" s="114">
@@ -32868,7 +32993,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="115"/>
       <c r="B234" s="114"/>
       <c r="C234" s="114">
@@ -32897,7 +33022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235" s="115"/>
       <c r="B235" s="114"/>
       <c r="C235" s="114">
@@ -32926,7 +33051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="115" t="s">
         <v>138</v>
       </c>
@@ -32960,7 +33085,7 @@
         <v>1.0984387634756558</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A237" s="116" t="s">
         <v>139</v>
       </c>
@@ -32997,45 +33122,45 @@
         <v>0.54921938173782792</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="19">
         <f>(G236^2+I236^2)/2</f>
         <v>0.60558860498735867</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241" s="19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="19">
         <f>SQRT(A240)</f>
         <v>0.7781957369372815</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="19" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="19">
         <f>_xlfn.T.INV(0.995,2)</f>
         <v>9.9248432009182892</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="19" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B247" s="19" t="s">
         <v>287</v>
       </c>
@@ -33058,7 +33183,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="19" t="s">
         <v>294</v>
       </c>
@@ -33091,7 +33216,7 @@
         <v>8.821909432201231</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="19" t="s">
         <v>295</v>
       </c>
@@ -33124,7 +33249,7 @@
         <v>-6.6250319052499202</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250" s="19" t="s">
         <v>297</v>
       </c>
@@ -33157,7 +33282,7 @@
         <v>1.4115198931810446</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251" s="19" t="s">
         <v>296</v>
       </c>
@@ -33190,7 +33315,7 @@
         <v>7.3391899756843737E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252" s="19" t="s">
         <v>298</v>
       </c>
@@ -33216,12 +33341,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254" s="19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255" s="19" t="s">
         <v>320</v>
       </c>
@@ -33241,7 +33366,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256" s="19">
         <v>1</v>
       </c>
@@ -33265,7 +33390,7 @@
         <v>-1.1402386910843181</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="19">
         <v>2</v>
       </c>
@@ -33289,7 +33414,7 @@
         <v>-0.616049789740859</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="19">
         <v>3</v>
       </c>
@@ -33313,7 +33438,7 @@
         <v>-0.28490240612784262</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="19">
         <v>4</v>
       </c>
@@ -33337,7 +33462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="19">
         <v>5</v>
       </c>
@@ -33361,7 +33486,7 @@
         <v>0.28490240612784273</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="19">
         <v>6</v>
       </c>
@@ -33385,7 +33510,7 @@
         <v>0.616049789740859</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="19">
         <v>7</v>
       </c>
@@ -33409,12 +33534,12 @@
         <v>1.1402386910843183</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B265" s="19" t="s">
         <v>307</v>
       </c>
@@ -33425,7 +33550,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B266" s="110">
         <f>B237</f>
         <v>-33.353115402634195</v>
@@ -33439,7 +33564,7 @@
         <v>2.689929568181789</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C267" s="19" t="s">
         <v>6</v>
       </c>
@@ -33450,7 +33575,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C268" s="19">
         <v>1</v>
       </c>
@@ -33461,7 +33586,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="19" t="s">
         <v>313</v>
       </c>
@@ -33474,7 +33599,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B256:B262">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B256:B262">
     <sortCondition ref="B256"/>
   </sortState>
   <mergeCells count="8">
@@ -33494,28 +33619,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -33523,7 +33648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -33531,7 +33656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -33539,7 +33664,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -33547,7 +33672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -33555,12 +33680,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>59</v>
@@ -33578,7 +33703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -33598,7 +33723,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -33614,7 +33739,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -33628,8 +33753,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>64</v>
@@ -33656,7 +33781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -33685,7 +33810,7 @@
         <v>24.291212616486391</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -33714,7 +33839,7 @@
         <v>3.7866985515594669</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -33743,7 +33868,7 @@
         <v>-0.30640985632510942</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -33772,7 +33897,7 @@
         <v>-2.2501020824080062</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
@@ -33801,7 +33926,7 @@
         <v>-0.20492684552540205</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -33830,7 +33955,7 @@
         <v>-0.54945274891786022</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -33859,7 +33984,7 @@
         <v>5.8616414419046068</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
         <v>89</v>
       </c>
